--- a/mapping/map_egydrug.xlsx
+++ b/mapping/map_egydrug.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sales_repo\mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43D9142-5123-452F-878F-D534551C70E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395FA743-FA4C-40DB-9DF2-4BB1E22E7812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bricks" sheetId="1" r:id="rId1"/>
@@ -2107,8 +2107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1231"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11981,7 +11981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B99B14-DF5C-4ABE-AD12-426913F1CA02}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
